--- a/23729/Оценка_23729.xlsx
+++ b/23729/Оценка_23729.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="23729" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="17">
   <si>
     <t>Анализ требований</t>
   </si>
@@ -52,6 +52,24 @@
   </si>
   <si>
     <t>Доработка экранных форм ВОО (2 шт)</t>
+  </si>
+  <si>
+    <t>Написание внутреннего ТЗ</t>
+  </si>
+  <si>
+    <t>Реализация и внутреннее тестирование функционала</t>
+  </si>
+  <si>
+    <t>Поставка в банк в составе версии</t>
+  </si>
+  <si>
+    <t>Доработка экранных форм ВОО (12 шт)</t>
+  </si>
+  <si>
+    <t>Написание инструкции в Руководство Администратора</t>
+  </si>
+  <si>
+    <t>Доработка формы "Функции системы"</t>
   </si>
 </sst>
 </file>
@@ -80,6 +98,8 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -111,7 +131,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -386,11 +406,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -419,6 +557,51 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -428,11 +611,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -443,21 +628,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -738,10 +909,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:D14"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,21 +923,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
+      <c r="A1" s="47"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="49"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="30"/>
+      <c r="B2" s="38"/>
       <c r="C2" s="6"/>
       <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
@@ -776,7 +947,7 @@
       <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
@@ -786,15 +957,15 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="30"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="6"/>
       <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
@@ -804,7 +975,7 @@
       <c r="D6" s="14"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
@@ -814,7 +985,7 @@
       <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="27"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="10" t="s">
         <v>4</v>
       </c>
@@ -824,15 +995,15 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="30"/>
+      <c r="B9" s="38"/>
       <c r="C9" s="6"/>
       <c r="D9" s="13"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="4" t="s">
         <v>1</v>
       </c>
@@ -842,7 +1013,7 @@
       <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="17" t="s">
         <v>2</v>
       </c>
@@ -852,7 +1023,7 @@
       <c r="D11" s="19"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="8" t="s">
         <v>4</v>
       </c>
@@ -862,22 +1033,22 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="33">
+      <c r="B13" s="51"/>
+      <c r="C13" s="20">
         <v>2</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="36"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="9"/>
       <c r="D14" s="13">
         <v>5</v>
@@ -888,8 +1059,172 @@
       <c r="B15" s="16"/>
       <c r="C15" s="12"/>
     </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="47"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="42"/>
+      <c r="B21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>3</v>
+      </c>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="43"/>
+      <c r="B22" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="18">
+        <v>3</v>
+      </c>
+      <c r="D22" s="34"/>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="43"/>
+      <c r="B23" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="35"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="44"/>
+      <c r="B24" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="38"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="13"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="39"/>
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2</v>
+      </c>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="40"/>
+      <c r="B27" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="27">
+        <v>3</v>
+      </c>
+      <c r="D27" s="24"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="40"/>
+      <c r="B28" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="27">
+        <v>2</v>
+      </c>
+      <c r="D28" s="24"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="41"/>
+      <c r="B29" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="38"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="13"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="42"/>
+      <c r="B31" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="14"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="43"/>
+      <c r="B32" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="25"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="44"/>
+      <c r="B33" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="32"/>
+      <c r="D33" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="46"/>
+      <c r="C34" s="28">
+        <v>0</v>
+      </c>
+      <c r="D34" s="29"/>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="30"/>
+      <c r="B35" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="32"/>
+      <c r="D35" s="33">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="17">
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A14:B14"/>
@@ -899,6 +1234,11 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:A29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
